--- a/NformTester/NformTester/keywordscripts/TST555_ShowTimeRangeSelction.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST555_ShowTimeRangeSelction.xlsx
@@ -3660,9 +3660,6 @@
     <t>;Clear operation.</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3680,10 +3677,6 @@
     <t>;Add one device.</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -3839,6 +3832,12 @@
   <si>
     <t>;Prerequisites:Hardware:-IS Web Card with GXT 2U UPS, Running on.Software:-NformG2 Full Package Application installed on Machine; NformG2 Remote Client Application installed on Machine; Nx Simulator running on Machine. Special Procedural Requirements:-1. Basic License is added and SNMP devices are added.2. All the data points will get logged into the database.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
   </si>
 </sst>
 </file>
@@ -4366,7 +4365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4456,7 +4457,7 @@
         <v>766</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4497,7 +4498,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4528,7 +4529,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4553,7 +4554,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4578,7 +4579,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="5"/>
@@ -4597,7 +4598,7 @@
         <v>763</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -4616,13 +4617,13 @@
         <v>795</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>804</v>
+        <v>852</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>798</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>779</v>
@@ -4644,7 +4645,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -4709,7 +4710,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>798</v>
+        <v>851</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4756,10 +4757,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -4783,7 +4784,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="5"/>
@@ -4835,7 +4836,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>19</v>
@@ -4847,10 +4848,10 @@
         <v>7</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J16" s="11" t="b">
         <v>0</v>
@@ -4939,13 +4940,13 @@
         <v>110</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J19" s="11" t="b">
         <v>1</v>
@@ -4977,10 +4978,10 @@
         <v>7</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J20" s="11" t="b">
         <v>1</v>
@@ -5012,10 +5013,10 @@
         <v>7</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J21" s="11" t="b">
         <v>1</v>
@@ -5037,7 +5038,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>2</v>
@@ -5062,16 +5063,16 @@
         <v>19</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J23" s="11" t="b">
         <v>1</v>
@@ -5137,10 +5138,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -5252,10 +5253,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>577</v>
@@ -5264,7 +5265,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -5279,10 +5280,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>185</v>
@@ -5303,7 +5304,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>583</v>
@@ -5327,10 +5328,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>95</v>
@@ -6041,7 +6042,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L4" t="s">
         <v>95</v>
@@ -6923,7 +6924,7 @@
     </row>
     <row r="10" spans="1:83">
       <c r="A10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -7452,7 +7453,7 @@
         <v>568</v>
       </c>
       <c r="AU15" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="BB15" t="s">
         <v>608</v>
@@ -7984,7 +7985,7 @@
         <v>418</v>
       </c>
       <c r="AQ26" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="BB26" t="s">
         <v>617</v>
@@ -8906,7 +8907,7 @@
         <v>754</v>
       </c>
       <c r="E82" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AO82" t="s">
         <v>332</v>
@@ -8914,10 +8915,10 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E83" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AO83" t="s">
         <v>360</v>
@@ -8925,7 +8926,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E84" t="s">
         <v>102</v>
@@ -8984,7 +8985,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="E91" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AO91" t="s">
         <v>478</v>
@@ -8992,7 +8993,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="E92" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AO92" t="s">
         <v>479</v>
@@ -9000,7 +9001,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="E93" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AO93" t="s">
         <v>480</v>
@@ -9008,7 +9009,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="E94" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AO94" t="s">
         <v>481</v>
@@ -9016,7 +9017,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="E95" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AO95" t="s">
         <v>482</v>
@@ -9024,7 +9025,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="E96" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AO96" t="s">
         <v>483</v>
@@ -9032,7 +9033,7 @@
     </row>
     <row r="97" spans="5:41">
       <c r="E97" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AO97" t="s">
         <v>484</v>
@@ -9040,7 +9041,7 @@
     </row>
     <row r="98" spans="5:41">
       <c r="E98" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AO98" t="s">
         <v>485</v>
@@ -9048,7 +9049,7 @@
     </row>
     <row r="99" spans="5:41">
       <c r="E99" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AO99" t="s">
         <v>486</v>
@@ -9064,7 +9065,7 @@
     </row>
     <row r="101" spans="5:41">
       <c r="E101" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AO101" t="s">
         <v>488</v>
@@ -9072,7 +9073,7 @@
     </row>
     <row r="102" spans="5:41">
       <c r="E102" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AO102" t="s">
         <v>382</v>
@@ -9096,7 +9097,7 @@
     </row>
     <row r="105" spans="5:41">
       <c r="E105" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AO105" t="s">
         <v>491</v>
@@ -9104,7 +9105,7 @@
     </row>
     <row r="106" spans="5:41">
       <c r="E106" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AO106" t="s">
         <v>492</v>
@@ -9112,7 +9113,7 @@
     </row>
     <row r="107" spans="5:41">
       <c r="E107" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AO107" t="s">
         <v>493</v>
@@ -9120,7 +9121,7 @@
     </row>
     <row r="108" spans="5:41">
       <c r="E108" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AO108" t="s">
         <v>494</v>
@@ -9144,7 +9145,7 @@
     </row>
     <row r="111" spans="5:41">
       <c r="E111" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AO111" t="s">
         <v>497</v>
@@ -9152,7 +9153,7 @@
     </row>
     <row r="112" spans="5:41">
       <c r="E112" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AO112" t="s">
         <v>498</v>
@@ -9160,7 +9161,7 @@
     </row>
     <row r="113" spans="5:41">
       <c r="E113" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AO113" t="s">
         <v>499</v>
@@ -9168,7 +9169,7 @@
     </row>
     <row r="114" spans="5:41">
       <c r="E114" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AO114" t="s">
         <v>500</v>
@@ -12741,7 +12742,7 @@
         <v>5</v>
       </c>
       <c r="DG2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="DH2" t="s">
         <v>111</v>
@@ -15704,7 +15705,7 @@
         <v>6</v>
       </c>
       <c r="AS3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
@@ -15827,10 +15828,10 @@
         <v>6</v>
       </c>
       <c r="CH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CI3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -15857,7 +15858,7 @@
         <v>6</v>
       </c>
       <c r="CR3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CS3" t="s">
         <v>6</v>
@@ -15872,10 +15873,10 @@
         <v>6</v>
       </c>
       <c r="CW3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="CY3" t="s">
         <v>6</v>
@@ -15983,7 +15984,7 @@
         <v>5</v>
       </c>
       <c r="EH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="EI3" t="s">
         <v>4</v>
@@ -16148,7 +16149,7 @@
         <v>4</v>
       </c>
       <c r="GK3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="GL3" t="s">
         <v>6</v>
@@ -16205,7 +16206,7 @@
         <v>6</v>
       </c>
       <c r="HD3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="HE3" t="s">
         <v>6</v>
@@ -16418,10 +16419,10 @@
         <v>6</v>
       </c>
       <c r="JW3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="JX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="JY3" t="s">
         <v>4</v>
@@ -16628,7 +16629,7 @@
         <v>6</v>
       </c>
       <c r="MO3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="MP3" t="s">
         <v>4</v>
@@ -16667,7 +16668,7 @@
         <v>6</v>
       </c>
       <c r="NB3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NC3" t="s">
         <v>6</v>
@@ -16718,10 +16719,10 @@
         <v>4</v>
       </c>
       <c r="NS3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NT3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="NU3" t="s">
         <v>4</v>
@@ -16811,7 +16812,7 @@
         <v>4</v>
       </c>
       <c r="OX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="OY3" t="s">
         <v>6</v>
@@ -16982,7 +16983,7 @@
         <v>6</v>
       </c>
       <c r="RC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="RD3" t="s">
         <v>4</v>
@@ -16997,7 +16998,7 @@
         <v>4</v>
       </c>
       <c r="RH3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="RI3" t="s">
         <v>6</v>
@@ -17066,7 +17067,7 @@
         <v>4</v>
       </c>
       <c r="SE3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SF3" t="s">
         <v>4</v>
@@ -17093,13 +17094,13 @@
         <v>4</v>
       </c>
       <c r="SN3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SO3" t="s">
         <v>4</v>
       </c>
       <c r="SP3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="SQ3" t="s">
         <v>6</v>
@@ -17261,7 +17262,7 @@
         <v>4</v>
       </c>
       <c r="UR3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="US3" t="s">
         <v>6</v>
@@ -17714,7 +17715,7 @@
         <v>3</v>
       </c>
       <c r="AAM3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAN3" t="s">
         <v>4</v>
@@ -17735,10 +17736,10 @@
         <v>6</v>
       </c>
       <c r="AAT3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAU3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AAV3" t="s">
         <v>4</v>
@@ -17783,7 +17784,7 @@
         <v>6</v>
       </c>
       <c r="ABJ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ABK3" t="s">
         <v>6</v>
@@ -17825,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="ABX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ABY3" t="s">
         <v>3</v>
@@ -17975,7 +17976,7 @@
         <v>4</v>
       </c>
       <c r="ADV3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ADW3" t="s">
         <v>6</v>
@@ -17996,7 +17997,7 @@
         <v>6</v>
       </c>
       <c r="AEC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AED3" t="s">
         <v>6</v>
@@ -18059,7 +18060,7 @@
         <v>6</v>
       </c>
       <c r="AEX3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AEY3" t="s">
         <v>3</v>
@@ -18071,10 +18072,10 @@
         <v>4</v>
       </c>
       <c r="AFB3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AFC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AFD3" t="s">
         <v>6</v>
@@ -18182,7 +18183,7 @@
         <v>4</v>
       </c>
       <c r="AGM3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AGN3" t="s">
         <v>6</v>
@@ -18194,7 +18195,7 @@
         <v>6</v>
       </c>
       <c r="AGQ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AGR3" t="s">
         <v>6</v>
@@ -18257,7 +18258,7 @@
         <v>6</v>
       </c>
       <c r="AHL3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AHM3" t="s">
         <v>6</v>
@@ -18407,7 +18408,7 @@
         <v>6</v>
       </c>
       <c r="AJJ3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AJK3" t="s">
         <v>5</v>
@@ -18464,7 +18465,7 @@
         <v>6</v>
       </c>
       <c r="AKC3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AKD3" t="s">
         <v>5</v>
@@ -18518,7 +18519,7 @@
         <v>6</v>
       </c>
       <c r="AKU3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AKV3" t="s">
         <v>6</v>
@@ -18548,7 +18549,7 @@
         <v>112</v>
       </c>
       <c r="ALE3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="ALF3" t="s">
         <v>4</v>
@@ -18865,7 +18866,7 @@
         <v>7</v>
       </c>
       <c r="AS4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AT4" t="s">
         <v>5</v>
@@ -18988,10 +18989,10 @@
         <v>7</v>
       </c>
       <c r="CH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CI4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CJ4" t="s">
         <v>7</v>
@@ -19018,7 +19019,7 @@
         <v>7</v>
       </c>
       <c r="CR4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="CS4" t="s">
         <v>7</v>
@@ -19033,10 +19034,10 @@
         <v>7</v>
       </c>
       <c r="CW4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="CY4" t="s">
         <v>7</v>
@@ -19144,7 +19145,7 @@
         <v>6</v>
       </c>
       <c r="EH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="EI4" t="s">
         <v>5</v>
@@ -19309,7 +19310,7 @@
         <v>5</v>
       </c>
       <c r="GK4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="GL4" t="s">
         <v>7</v>
@@ -19366,7 +19367,7 @@
         <v>7</v>
       </c>
       <c r="HD4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="HE4" t="s">
         <v>7</v>
@@ -19579,10 +19580,10 @@
         <v>7</v>
       </c>
       <c r="JW4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="JX4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="JY4" t="s">
         <v>5</v>
@@ -19789,7 +19790,7 @@
         <v>7</v>
       </c>
       <c r="MO4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="MP4" t="s">
         <v>5</v>
@@ -19828,7 +19829,7 @@
         <v>7</v>
       </c>
       <c r="NB4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NC4" t="s">
         <v>7</v>
@@ -19879,10 +19880,10 @@
         <v>5</v>
       </c>
       <c r="NS4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="NT4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="NU4" t="s">
         <v>5</v>
@@ -19972,7 +19973,7 @@
         <v>5</v>
       </c>
       <c r="OX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="OY4" t="s">
         <v>7</v>
@@ -20143,7 +20144,7 @@
         <v>7</v>
       </c>
       <c r="RC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="RD4" t="s">
         <v>5</v>
@@ -20158,7 +20159,7 @@
         <v>5</v>
       </c>
       <c r="RH4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="RI4" t="s">
         <v>7</v>
@@ -20227,7 +20228,7 @@
         <v>5</v>
       </c>
       <c r="SE4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="SF4" t="s">
         <v>5</v>
@@ -20254,13 +20255,13 @@
         <v>5</v>
       </c>
       <c r="SN4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="SO4" t="s">
         <v>5</v>
       </c>
       <c r="SP4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="SQ4" t="s">
         <v>7</v>
@@ -20422,7 +20423,7 @@
         <v>5</v>
       </c>
       <c r="UR4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="US4" t="s">
         <v>7</v>
@@ -20875,7 +20876,7 @@
         <v>4</v>
       </c>
       <c r="AAM4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAN4" t="s">
         <v>5</v>
@@ -20896,10 +20897,10 @@
         <v>7</v>
       </c>
       <c r="AAT4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AAU4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AAV4" t="s">
         <v>5</v>
@@ -20944,7 +20945,7 @@
         <v>7</v>
       </c>
       <c r="ABJ4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ABK4" t="s">
         <v>7</v>
@@ -20986,7 +20987,7 @@
         <v>4</v>
       </c>
       <c r="ABX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ABY4" t="s">
         <v>4</v>
@@ -21136,7 +21137,7 @@
         <v>5</v>
       </c>
       <c r="ADV4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ADW4" t="s">
         <v>7</v>
@@ -21157,7 +21158,7 @@
         <v>7</v>
       </c>
       <c r="AEC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AED4" t="s">
         <v>7</v>
@@ -21220,7 +21221,7 @@
         <v>7</v>
       </c>
       <c r="AEX4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AEY4" t="s">
         <v>4</v>
@@ -21232,10 +21233,10 @@
         <v>5</v>
       </c>
       <c r="AFB4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AFC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AFD4" t="s">
         <v>7</v>
@@ -21343,7 +21344,7 @@
         <v>5</v>
       </c>
       <c r="AGM4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AGN4" t="s">
         <v>7</v>
@@ -21355,7 +21356,7 @@
         <v>7</v>
       </c>
       <c r="AGQ4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AGR4" t="s">
         <v>7</v>
@@ -21418,7 +21419,7 @@
         <v>7</v>
       </c>
       <c r="AHL4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AHM4" t="s">
         <v>7</v>
@@ -21568,7 +21569,7 @@
         <v>7</v>
       </c>
       <c r="AJJ4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AJK4" t="s">
         <v>6</v>
@@ -21625,7 +21626,7 @@
         <v>7</v>
       </c>
       <c r="AKC4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AKD4" t="s">
         <v>6</v>
@@ -21679,7 +21680,7 @@
         <v>7</v>
       </c>
       <c r="AKU4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AKV4" t="s">
         <v>7</v>
@@ -21709,7 +21710,7 @@
         <v>5</v>
       </c>
       <c r="ALE4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="ALF4" t="s">
         <v>5</v>
@@ -22152,7 +22153,7 @@
         <v>5</v>
       </c>
       <c r="CI5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CJ5" t="s">
         <v>8</v>
@@ -22194,7 +22195,7 @@
         <v>8</v>
       </c>
       <c r="CW5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="CX5" t="s">
         <v>3</v>
@@ -23415,7 +23416,7 @@
         <v>6</v>
       </c>
       <c r="SN5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="SO5" t="s">
         <v>6</v>
@@ -24393,7 +24394,7 @@
         <v>6</v>
       </c>
       <c r="AFB5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AFC5" t="s">
         <v>3</v>
@@ -24504,7 +24505,7 @@
         <v>6</v>
       </c>
       <c r="AGM5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AGN5" t="s">
         <v>8</v>
@@ -24516,7 +24517,7 @@
         <v>8</v>
       </c>
       <c r="AGQ5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AGR5" t="s">
         <v>8</v>
@@ -25085,7 +25086,7 @@
         <v>7</v>
       </c>
       <c r="AS6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AT6" t="s">
         <v>7</v>
@@ -25097,13 +25098,13 @@
         <v>98</v>
       </c>
       <c r="CR6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="CW6" t="s">
         <v>98</v>
       </c>
       <c r="CX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="DG6" t="s">
         <v>8</v>
@@ -25250,7 +25251,7 @@
         <v>7</v>
       </c>
       <c r="GK6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="GP6" t="s">
         <v>7</v>
@@ -25526,10 +25527,10 @@
         <v>7</v>
       </c>
       <c r="NS6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NT6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="NU6" t="s">
         <v>7</v>
@@ -25580,7 +25581,7 @@
         <v>7</v>
       </c>
       <c r="OX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="PD6" t="s">
         <v>7</v>
@@ -25646,7 +25647,7 @@
         <v>7</v>
       </c>
       <c r="RC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="RD6" t="s">
         <v>7</v>
@@ -25685,7 +25686,7 @@
         <v>7</v>
       </c>
       <c r="SE6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="SF6" t="s">
         <v>7</v>
@@ -25703,7 +25704,7 @@
         <v>7</v>
       </c>
       <c r="SP6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="TF6" t="s">
         <v>7</v>
@@ -25991,10 +25992,10 @@
         <v>7</v>
       </c>
       <c r="AAT6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAU6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AAV6" t="s">
         <v>7</v>
@@ -26027,7 +26028,7 @@
         <v>7</v>
       </c>
       <c r="ABJ6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ABN6" t="s">
         <v>7</v>
@@ -26039,7 +26040,7 @@
         <v>5</v>
       </c>
       <c r="ABX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ABY6" t="s">
         <v>5</v>
@@ -26090,7 +26091,7 @@
         <v>7</v>
       </c>
       <c r="ADV6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ADY6" t="s">
         <v>5</v>
@@ -26102,13 +26103,13 @@
         <v>5</v>
       </c>
       <c r="AEC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AEG6" t="s">
         <v>7</v>
       </c>
       <c r="AEX6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AEY6" t="s">
         <v>5</v>
@@ -26123,7 +26124,7 @@
         <v>98</v>
       </c>
       <c r="AFC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AFP6" t="s">
         <v>5</v>
@@ -26174,7 +26175,7 @@
         <v>7</v>
       </c>
       <c r="AHL6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AHX6" t="s">
         <v>7</v>
@@ -26207,7 +26208,7 @@
         <v>7</v>
       </c>
       <c r="AJJ6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AJK6" t="s">
         <v>8</v>
@@ -26219,7 +26220,7 @@
         <v>7</v>
       </c>
       <c r="AKC6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AKD6" t="s">
         <v>8</v>
@@ -26234,7 +26235,7 @@
         <v>7</v>
       </c>
       <c r="AKU6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AKW6" t="s">
         <v>8</v>
@@ -26246,7 +26247,7 @@
         <v>7</v>
       </c>
       <c r="ALE6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="ALF6" t="s">
         <v>7</v>
@@ -27644,7 +27645,7 @@
         <v>7</v>
       </c>
       <c r="CH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CI9" t="s">
         <v>7</v>
@@ -27659,13 +27660,13 @@
         <v>7</v>
       </c>
       <c r="EH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="GK9" t="s">
         <v>7</v>
       </c>
       <c r="HD9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="JP9" t="s">
         <v>8</v>
@@ -27674,16 +27675,16 @@
         <v>8</v>
       </c>
       <c r="JW9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="JX9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="MO9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NB9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NL9" t="s">
         <v>8</v>
@@ -27701,7 +27702,7 @@
         <v>7</v>
       </c>
       <c r="RH9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SE9" t="s">
         <v>7</v>
@@ -27713,13 +27714,13 @@
         <v>7</v>
       </c>
       <c r="UR9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAL9" t="s">
         <v>8</v>
       </c>
       <c r="AAM9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAT9" t="s">
         <v>7</v>
@@ -27799,7 +27800,7 @@
         <v>8</v>
       </c>
       <c r="CH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CI10" t="s">
         <v>8</v>
@@ -27814,25 +27815,25 @@
         <v>8</v>
       </c>
       <c r="EH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="GK10" t="s">
         <v>8</v>
       </c>
       <c r="HD10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="JW10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="JX10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="MO10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NB10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NS10" t="s">
         <v>8</v>
@@ -27847,7 +27848,7 @@
         <v>8</v>
       </c>
       <c r="RH10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SE10" t="s">
         <v>8</v>
@@ -27859,10 +27860,10 @@
         <v>8</v>
       </c>
       <c r="UR10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAM10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAT10" t="s">
         <v>8</v>
@@ -27915,180 +27916,180 @@
     </row>
     <row r="11" spans="1:1053">
       <c r="AS11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CI11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CR11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CW11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="CX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="GK11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NS11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="NT11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="OX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="RC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SE11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SN11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="SP11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAT11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AAU11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ABJ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ABX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ADV11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AEC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AEX11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AFB11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AFC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AGM11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AGQ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AHL11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AJJ11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AKC11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AKU11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="ALE11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12" spans="1:1053">
       <c r="AS12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CI12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CR12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CW12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="CX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="GK12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NS12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="NT12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="OX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="RC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SE12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SN12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="SP12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAT12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AAU12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ABJ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ABX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ADV12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AEC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AEX12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AFB12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AFC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AGM12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AGQ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AHL12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AJJ12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AKC12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AKU12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="ALE12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST555_ShowTimeRangeSelction.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST555_ShowTimeRangeSelction.xlsx
@@ -3815,10 +3815,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VerifyProperty</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3834,10 +3830,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
-    <t>$SNMPdevice_0$</t>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4365,8 +4367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4529,7 +4531,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4548,13 +4550,13 @@
         <v>771</v>
       </c>
       <c r="B6" s="10">
-        <v>41123</v>
+        <v>41451</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4595,11 +4597,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>846</v>
-      </c>
+        <v>852</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>795</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>851</v>
@@ -4636,11 +4636,9 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>774</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4660,8 +4658,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>774</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4687,10 +4689,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4750,7 +4750,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4777,7 +4777,7 @@
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4800,7 +4800,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4829,7 +4829,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4851,7 +4851,7 @@
         <v>839</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J16" s="11" t="b">
         <v>0</v>
@@ -4863,10 +4863,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>782</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4894,7 +4894,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4921,11 +4921,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>784</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -4940,13 +4938,13 @@
         <v>110</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>839</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J19" s="11" t="b">
         <v>1</v>
@@ -4959,9 +4957,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>784</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>774</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>845</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J20" s="11" t="b">
         <v>1</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5016,7 +5016,7 @@
         <v>839</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J21" s="11" t="b">
         <v>1</v>
@@ -5028,6 +5028,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>839</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J23" s="11" t="b">
         <v>1</v>
